--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject45.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject45.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.88028813607197476</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.53485689657979885</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -188,7 +188,7 @@
         <v>0</v>
       </c>
       <c r="U1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.73220767823493182</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.6769441750096783</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.76331025536862018</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -379,7 +379,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="0">
-        <v>0</v>
+        <v>0.68404367345816375</v>
       </c>
       <c r="Q2" s="0">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -484,13 +484,13 @@
         <v>0</v>
       </c>
       <c r="AY2" s="0">
-        <v>0</v>
+        <v>0.97617689643601868</v>
       </c>
       <c r="AZ2" s="0">
         <v>0</v>
       </c>
       <c r="BA2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0</v>
+        <v>0.72126246412638684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.74884953556969558</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.81592098434704274</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.9103404817095575</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.7806962025863402</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="0">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.53756972124247293</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.60814650179708185</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.5333658646470909</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.76949615041544228</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.60637425060356986</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.57737220026133407</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.97386655391209209</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.9745257915463732</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.81426175875646578</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.97968263179143533</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.89536582436292711</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="0">
-        <v>0</v>
+        <v>0.52151655385300066</v>
       </c>
       <c r="AF6" s="0">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="AI6" s="0">
-        <v>0</v>
+        <v>0.78883276506022426</v>
       </c>
       <c r="AJ6" s="0">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="BI6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="0">
         <v>0</v>
       </c>
       <c r="BK6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.96422850090400092</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.62748502101543946</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.98328992103498436</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="0">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="0">
-        <v>0</v>
+        <v>0.88298995077017683</v>
       </c>
       <c r="AX7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.68190095272031481</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.88230416182286864</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.80721191402232395</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="0">
-        <v>0</v>
+        <v>0.72843455559635406</v>
       </c>
       <c r="BK8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.51596079580593024</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.8158939412847126</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.99626292173355002</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.51141900483763703</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="0">
-        <v>0</v>
+        <v>0.78244457751175767</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.91388925893458506</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.72709033359675646</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.97635738810555017</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>0</v>
+        <v>0.88270667559024552</v>
       </c>
       <c r="U10" s="0">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="AL10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="0">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AV10" s="0">
-        <v>0</v>
+        <v>0.88034743739117483</v>
       </c>
       <c r="AW10" s="0">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.50398119466807278</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.85951314023820591</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="0">
-        <v>0</v>
+        <v>0.79644162545383734</v>
       </c>
       <c r="AJ11" s="0">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="0">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="BG11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="0">
-        <v>0</v>
+        <v>0.82885923364421821</v>
       </c>
       <c r="BI11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.50677952629063006</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.91688942957056596</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.76683328880559476</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="0">
-        <v>0</v>
+        <v>0.63659172561369481</v>
       </c>
       <c r="Y12" s="0">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.88763589772238838</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.80148911904369702</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.9897108967548035</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="0">
-        <v>0</v>
+        <v>0.88978441422576782</v>
       </c>
       <c r="AJ13" s="0">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="AL13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="0">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="BC13" s="0">
-        <v>0</v>
+        <v>0.76118955266150878</v>
       </c>
       <c r="BD13" s="0">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="BO13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.68320135050584363</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.9175080662461188</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.90545645188534885</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="0">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="0">
-        <v>0</v>
+        <v>0.53827687954774939</v>
       </c>
       <c r="AA14" s="0">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="BC14" s="0">
-        <v>0</v>
+        <v>0.61102164309025531</v>
       </c>
       <c r="BD14" s="0">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="0">
-        <v>0</v>
+        <v>0.81261199524221461</v>
       </c>
       <c r="J15" s="0">
         <v>0</v>
@@ -3051,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.65177471801543574</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.94952909569747845</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="0">
-        <v>0</v>
+        <v>0.79968460924113782</v>
       </c>
       <c r="Y15" s="0">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="0">
-        <v>0</v>
+        <v>0.5942145586099612</v>
       </c>
       <c r="C16" s="0">
         <v>0</v>
@@ -3257,16 +3257,16 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.74721510289877524</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.83387374775399525</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="0">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="BL16" s="0">
-        <v>0</v>
+        <v>0.9957384360399284</v>
       </c>
       <c r="BM16" s="0">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="0">
-        <v>0</v>
+        <v>0.52830139573100188</v>
       </c>
       <c r="BP16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.58996172034616223</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0</v>
+        <v>0.747530556276502</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.87980787746126687</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="0">
         <v>0</v>
@@ -3678,16 +3678,16 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0</v>
+        <v>0.81389422321398297</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.68277332324304951</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="0">
-        <v>0</v>
+        <v>0.61455967444143877</v>
       </c>
       <c r="AS18" s="0">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="0">
         <v>0</v>
@@ -3884,22 +3884,22 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.82419505482972444</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.74905239432349435</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.60866454871906495</v>
       </c>
       <c r="U19" s="0">
-        <v>0</v>
+        <v>0.91859956568357171</v>
       </c>
       <c r="V19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="0">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="BL19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>0</v>
+        <v>0.7485374252864192</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.96959405346442207</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4159,13 +4159,13 @@
         <v>0</v>
       </c>
       <c r="AN20" s="0">
-        <v>0</v>
+        <v>0.55764575306847064</v>
       </c>
       <c r="AO20" s="0">
         <v>0</v>
       </c>
       <c r="AP20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="0">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AV20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="0">
         <v>0</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0</v>
+        <v>0.50978405710975894</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.60479657155705335</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.7949696195458078</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>0</v>
+        <v>0.53260335540923331</v>
       </c>
       <c r="AN21" s="0">
         <v>0</v>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="BK21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL21" s="0">
         <v>0</v>
@@ -4508,22 +4508,22 @@
         <v>0</v>
       </c>
       <c r="S22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.53210239493884792</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.62510980632203839</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.88685160949016728</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="AO22" s="0">
-        <v>1</v>
+        <v>0.56932880667822605</v>
       </c>
       <c r="AP22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.99409214393774525</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.80916843077620149</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.59804537242385791</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.88470955193104028</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="0">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="0">
-        <v>0</v>
+        <v>0.77022351994630922</v>
       </c>
       <c r="M24" s="0">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="0">
-        <v>0</v>
+        <v>0.61404877949093206</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.85301209733086392</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.86353952351864927</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="BN24" s="0">
-        <v>0</v>
+        <v>0.79868923383879442</v>
       </c>
       <c r="BO24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.67532486007939352</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.507402179261492</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="0">
-        <v>0</v>
+        <v>0.50092783135613117</v>
       </c>
       <c r="AG25" s="0">
         <v>0</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="0">
-        <v>0</v>
+        <v>0.84440429754074864</v>
       </c>
       <c r="O26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.61341880706786722</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.91740789996814931</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.85478929268296855</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="0">
-        <v>0</v>
+        <v>0.63144338128447963</v>
       </c>
       <c r="AI26" s="0">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="AX26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="0">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.83836501541146924</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.88075598991781501</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="0">
         <v>0</v>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" s="0">
-        <v>0</v>
+        <v>0.95410992333743838</v>
       </c>
       <c r="BA27" s="0">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="BP27" s="0">
-        <v>0</v>
+        <v>0.82419368134407245</v>
       </c>
     </row>
     <row r="28">
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.62592241908300861</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.67761323822090502</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>0</v>
+        <v>0.62089235975782442</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AV28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="0">
-        <v>0</v>
+        <v>0.5789694483432466</v>
       </c>
       <c r="BK28" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.93506054533390048</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.65086515202952056</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6183,16 +6183,16 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0</v>
+        <v>0.55773205660113057</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.91657425339003851</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.66018397108831994</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="0">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="AW30" s="0">
-        <v>0</v>
+        <v>0.92303704732545588</v>
       </c>
       <c r="AX30" s="0">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="0">
-        <v>0</v>
+        <v>0.60184311641251864</v>
       </c>
       <c r="BF30" s="0">
         <v>0</v>
@@ -6323,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="0">
-        <v>0</v>
+        <v>0.67984731576916724</v>
       </c>
       <c r="G31" s="0">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.82763092824071083</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.53934706654402742</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6422,13 +6422,13 @@
         <v>0</v>
       </c>
       <c r="AM31" s="0">
-        <v>0</v>
+        <v>0.76612701742194833</v>
       </c>
       <c r="AN31" s="0">
         <v>0</v>
       </c>
       <c r="AO31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31" s="0">
         <v>0</v>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="0">
-        <v>0</v>
+        <v>0.82623607910536712</v>
       </c>
       <c r="Z32" s="0">
         <v>0</v>
@@ -6604,16 +6604,16 @@
         <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.80547323764031886</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="BL32" s="0">
-        <v>0</v>
+        <v>0.52127020235312127</v>
       </c>
       <c r="BM32" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.96768462508815656</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.98252244681035172</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="BA33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="0">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="0">
-        <v>0</v>
+        <v>0.84021049731122288</v>
       </c>
       <c r="AA34" s="0">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>0</v>
       </c>
       <c r="AD34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="0">
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.67656277436131917</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.96401462917682723</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.51000621251032108</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="AY34" s="0">
-        <v>0</v>
+        <v>0.53717369356418132</v>
       </c>
       <c r="AZ34" s="0">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="BG34" s="0">
-        <v>0</v>
+        <v>0.91975665956494224</v>
       </c>
       <c r="BH34" s="0">
         <v>0</v>
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="0">
-        <v>0</v>
+        <v>0.77161801669834895</v>
       </c>
       <c r="G35" s="0">
         <v>0</v>
@@ -7162,13 +7162,13 @@
         <v>0</v>
       </c>
       <c r="K35" s="0">
-        <v>0</v>
+        <v>0.84858821692046105</v>
       </c>
       <c r="L35" s="0">
         <v>0</v>
       </c>
       <c r="M35" s="0">
-        <v>0</v>
+        <v>0.51261773319265058</v>
       </c>
       <c r="N35" s="0">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.57603789183242993</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.79805833152070293</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="BE35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF35" s="0">
         <v>0</v>
@@ -7440,16 +7440,16 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.91778744603894047</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.88566899895533635</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.95163189083796307</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.96124573796248947</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.99128081529063228</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="BB37" s="0">
-        <v>0</v>
+        <v>0.95195822992185175</v>
       </c>
       <c r="BC37" s="0">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="0">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.63382976374418654</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.51071176082427594</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.90786158820041529</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="0">
-        <v>0</v>
+        <v>0.89266331095510054</v>
       </c>
       <c r="AS38" s="0">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="0">
-        <v>0</v>
+        <v>0.63373372156071706</v>
       </c>
       <c r="BL38" s="0">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>0</v>
+        <v>0.67513183003758026</v>
       </c>
       <c r="V39" s="0">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="0">
-        <v>0</v>
+        <v>0.84004438585807628</v>
       </c>
       <c r="AF39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.7141065374419524</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.6092523325190502</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.71244581861380141</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>0</v>
+        <v>0.62307985922830067</v>
       </c>
       <c r="U40" s="0">
         <v>0</v>
@@ -8273,10 +8273,10 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.56063849153373235</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.59953973208120304</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="AU40" s="0">
-        <v>0</v>
+        <v>0.97952830314276318</v>
       </c>
       <c r="AV40" s="0">
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="0">
-        <v>1</v>
+        <v>0.84744150290945797</v>
       </c>
       <c r="W41" s="0">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="AE41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.65887380050692856</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="BP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.85363009979059989</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8700,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0</v>
+        <v>0.55391355100934181</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.82943198232041981</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="BN42" s="0">
-        <v>0</v>
+        <v>0.57670972092919803</v>
       </c>
       <c r="BO42" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.70733383944996531</v>
       </c>
       <c r="AP43" s="0">
-        <v>0</v>
+        <v>0.80068379886368468</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.73932409699732471</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.79707848862852304</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="0">
-        <v>0</v>
+        <v>0.96129136219367228</v>
       </c>
       <c r="S44" s="0">
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="0">
-        <v>0</v>
+        <v>0.93818845213214308</v>
       </c>
       <c r="AM44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.73976613852036865</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.9399981600753875</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.95985092217327628</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="AW44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX44" s="0">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="BG44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH44" s="0">
         <v>0</v>
@@ -9210,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.52150155336360871</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.69537619383329763</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.82910710895211803</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.9190960173752416</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.9210753027380183</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.82836333651182747</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.81777676222035955</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" s="0">
         <v>0</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="AN47" s="0">
-        <v>0</v>
+        <v>0.81749220043494808</v>
       </c>
       <c r="AO47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.83933430731834002</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.66095861534872857</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.59290631636805202</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.62711263916635696</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="0">
-        <v>0</v>
+        <v>0.88196874389754454</v>
       </c>
       <c r="K48" s="0">
         <v>0</v>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="0">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.75960337449663684</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.71677458175192932</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.66583739573794731</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.84545317584406132</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="0">
-        <v>0</v>
+        <v>0.62488975679454506</v>
       </c>
       <c r="H49" s="0">
         <v>0</v>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="0">
-        <v>0</v>
+        <v>0.90607300406193803</v>
       </c>
       <c r="AE49" s="0">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO49" s="0">
         <v>0</v>
@@ -10145,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="AR49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.54591660115870055</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.77533974709501952</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.84965774886654177</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="BB49" s="0">
-        <v>0</v>
+        <v>0.52182029525332307</v>
       </c>
       <c r="BC49" s="0">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="0">
         <v>0</v>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.64031176772803855</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0</v>
+        <v>0.77574909301737272</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0</v>
+        <v>0.54893335716796288</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="0">
-        <v>0</v>
+        <v>0.7165630408324466</v>
       </c>
       <c r="C51" s="0">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="AH51" s="0">
-        <v>0</v>
+        <v>0.96140080215296353</v>
       </c>
       <c r="AI51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.90492474523823874</v>
       </c>
       <c r="AX51" s="0">
-        <v>0</v>
+        <v>0.67527787363412028</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="0">
-        <v>0</v>
+        <v>0.79079462101247455</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0</v>
+        <v>0.71880284833866748</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.80324224975041236</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="AG53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.74471702431193587</v>
       </c>
       <c r="BC53" s="0">
-        <v>0</v>
+        <v>0.6880647017430459</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="BK53" s="0">
-        <v>0</v>
+        <v>0.68713014804004668</v>
       </c>
       <c r="BL53" s="0">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="0">
-        <v>0</v>
+        <v>0.69532219867798339</v>
       </c>
       <c r="AL54" s="0">
         <v>0</v>
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="AW54" s="0">
-        <v>0</v>
+        <v>0.94005222434706581</v>
       </c>
       <c r="AX54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.64348872645588817</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.61973981261002531</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11288,10 +11288,10 @@
         <v>0</v>
       </c>
       <c r="M55" s="0">
-        <v>0</v>
+        <v>0.64474272667537758</v>
       </c>
       <c r="N55" s="0">
-        <v>0</v>
+        <v>0.83374421065590865</v>
       </c>
       <c r="O55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0</v>
+        <v>0.55185811957917585</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.76958057921778722</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.66419956585423023</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.63397605215225927</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.60195424667895248</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.6203997755591828</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="AD57" s="0">
-        <v>0</v>
+        <v>0.55921871149192093</v>
       </c>
       <c r="AE57" s="0">
         <v>0</v>
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="AI57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.93942285348606003</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.73649597311487081</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.93470274252859298</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.78562681655378108</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.8854520475916392</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.93980680198469924</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.5787571800751723</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12106,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" s="0">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="AH59" s="0">
-        <v>0</v>
+        <v>0.57394104682873837</v>
       </c>
       <c r="AI59" s="0">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="AR59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS59" s="0">
         <v>0</v>
@@ -12244,16 +12244,16 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.9870666610626444</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.88197017734233174</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>0</v>
+        <v>0.52486066716548097</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.80872335569656695</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.71448019863379031</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.58436507285971295</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.835357922372163</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="0">
         <v>0</v>
@@ -12665,16 +12665,16 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.59832580336960217</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.83578333543504968</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.6640078341326725</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="0">
-        <v>0</v>
+        <v>0.72891380137112505</v>
       </c>
       <c r="I62" s="0">
         <v>0</v>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="0">
-        <v>0</v>
+        <v>0.98160723005804096</v>
       </c>
       <c r="AC62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.57322095715466337</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.94560092740840729</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.70075990177281833</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="0">
         <v>0</v>
@@ -12960,7 +12960,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>0</v>
+        <v>0.90519423541718103</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="BA63" s="0">
-        <v>0</v>
+        <v>0.95895495279412502</v>
       </c>
       <c r="BB63" s="0">
         <v>0</v>
@@ -13080,16 +13080,16 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.95777234830156677</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.51362193766667052</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.75601645146205398</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="0">
-        <v>0</v>
+        <v>0.6713846497615702</v>
       </c>
       <c r="Q64" s="0">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="0">
-        <v>0</v>
+        <v>0.76576709082997052</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.99455322839540194</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.9680781119434696</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.75675590177015795</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13501,16 +13501,16 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.54656986744934932</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.61925302122100701</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.67709030178375706</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13587,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="0">
-        <v>0</v>
+        <v>0.59434169625992483</v>
       </c>
       <c r="Y66" s="0">
         <v>0</v>
@@ -13641,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="AP66" s="0">
-        <v>0</v>
+        <v>0.72346380161225765</v>
       </c>
       <c r="AQ66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.52589149546596836</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.80538367010878942</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.97895516809551575</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13760,7 +13760,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" s="0">
         <v>0</v>
@@ -13769,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="0">
-        <v>0</v>
+        <v>0.57810015212316612</v>
       </c>
       <c r="Q67" s="0">
         <v>0</v>
@@ -13916,10 +13916,10 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.76079731451249433</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13930,10 +13930,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0</v>
+        <v>0.92865294479889315</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="AA68" s="0">
-        <v>0</v>
+        <v>0.56979971787641093</v>
       </c>
       <c r="AB68" s="0">
         <v>0</v>
@@ -14050,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="AO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP68" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject45.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject45.xlsx
@@ -134,7 +134,7 @@
         <v>0.88028813607197476</v>
       </c>
       <c r="C1" s="0">
-        <v>0.53485689657979885</v>
+        <v>0.74884953556969558</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.73220767823493182</v>
+        <v>0.97895516809551575</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -334,13 +334,13 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.6769441750096783</v>
+        <v>0.88028813607197476</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.76331025536862018</v>
+        <v>0.81592098434704274</v>
       </c>
       <c r="D2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.72126246412638684</v>
+        <v>0.92865294479889315</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.53756972124247293</v>
+        <v>0.9103404817095575</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0.60814650179708185</v>
       </c>
       <c r="F4" s="0">
-        <v>0.5333658646470909</v>
+        <v>0.9745257915463732</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -958,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.76949615041544228</v>
+        <v>0.7806962025863402</v>
       </c>
       <c r="D5" s="0">
-        <v>0.60637425060356986</v>
+        <v>0.60814650179708185</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.57737220026133407</v>
+        <v>0.81426175875646578</v>
       </c>
       <c r="G5" s="0">
         <v>0.97386655391209209</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="0">
-        <v>0.52151655385300066</v>
+        <v>0.67984731576916724</v>
       </c>
       <c r="AF6" s="0">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.96422850090400092</v>
+        <v>0.97386655391209209</v>
       </c>
       <c r="F7" s="0">
-        <v>0.62748502101543946</v>
+        <v>0.97968263179143533</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.68190095272031481</v>
+        <v>0.89536582436292711</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0.88230416182286864</v>
       </c>
       <c r="J8" s="0">
-        <v>0.80721191402232395</v>
+        <v>0.91388925893458506</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="0">
-        <v>0.72843455559635406</v>
+        <v>0.72891380137112505</v>
       </c>
       <c r="BK8" s="0">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.51596079580593024</v>
+        <v>0.98328992103498436</v>
       </c>
       <c r="H9" s="0">
-        <v>0.8158939412847126</v>
+        <v>0.88230416182286864</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="0">
-        <v>0.78244457751175767</v>
+        <v>0.81261199524221461</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0.91388925893458506</v>
       </c>
       <c r="I10" s="0">
-        <v>0.72709033359675646</v>
+        <v>0.99626292173355002</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AV10" s="0">
-        <v>0.88034743739117483</v>
+        <v>0.88196874389754454</v>
       </c>
       <c r="AW10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.50398119466807278</v>
+        <v>0.51141900483763703</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.85951314023820591</v>
+        <v>0.88763589772238838</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="0">
-        <v>0.79644162545383734</v>
+        <v>0.84858821692046105</v>
       </c>
       <c r="AJ11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.50677952629063006</v>
+        <v>0.97635738810555017</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="0">
-        <v>0.63659172561369481</v>
+        <v>0.77022351994630922</v>
       </c>
       <c r="Y12" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0.88763589772238838</v>
       </c>
       <c r="L13" s="0">
-        <v>0.80148911904369702</v>
+        <v>0.91688942957056596</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.68320135050584363</v>
+        <v>0.76683328880559476</v>
       </c>
       <c r="M14" s="0">
-        <v>0.9175080662461188</v>
+        <v>0.9897108967548035</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="0">
-        <v>0.53827687954774939</v>
+        <v>0.84440429754074864</v>
       </c>
       <c r="AA14" s="0">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="BC14" s="0">
-        <v>0.61102164309025531</v>
+        <v>0.83374421065590865</v>
       </c>
       <c r="BD14" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0.65177471801543574</v>
+        <v>0.90545645188534885</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="0">
-        <v>0.5942145586099612</v>
+        <v>0.68404367345816375</v>
       </c>
       <c r="C16" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0.74721510289877524</v>
+        <v>0.94952909569747845</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="0">
-        <v>0.52830139573100188</v>
+        <v>0.57810015212316612</v>
       </c>
       <c r="BP16" s="0">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0.58996172034616223</v>
+        <v>0.83387374775399525</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.747530556276502</v>
+        <v>0.81389422321398297</v>
       </c>
       <c r="S17" s="0">
         <v>0.87980787746126687</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.68277332324304951</v>
+        <v>0.74905239432349435</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="0">
-        <v>0.61455967444143877</v>
+        <v>0.96129136219367228</v>
       </c>
       <c r="AS18" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.82419505482972444</v>
+        <v>0.87980787746126687</v>
       </c>
       <c r="R19" s="0">
         <v>0.74905239432349435</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.60866454871906495</v>
+        <v>0.96959405346442207</v>
       </c>
       <c r="U19" s="0">
         <v>0.91859956568357171</v>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>0.7485374252864192</v>
+        <v>0.88270667559024552</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="0">
-        <v>0.55764575306847064</v>
+        <v>0.62307985922830067</v>
       </c>
       <c r="AO20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.50978405710975894</v>
+        <v>0.91859956568357171</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0.60479657155705335</v>
       </c>
       <c r="W21" s="0">
-        <v>0.7949696195458078</v>
+        <v>0.99409214393774525</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>0.53260335540923331</v>
+        <v>0.67513183003758026</v>
       </c>
       <c r="AN21" s="0">
         <v>0</v>
@@ -4514,13 +4514,13 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0.53210239493884792</v>
+        <v>0.60479657155705335</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.62510980632203839</v>
+        <v>0.80916843077620149</v>
       </c>
       <c r="X22" s="0">
         <v>0.88685160949016728</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="AO22" s="0">
-        <v>0.56932880667822605</v>
+        <v>0.84744150290945797</v>
       </c>
       <c r="AP22" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.59804537242385791</v>
+        <v>0.86353952351864927</v>
       </c>
       <c r="Y23" s="0">
         <v>0.88470955193104028</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="0">
-        <v>0.61404877949093206</v>
+        <v>0.79968460924113782</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.85301209733086392</v>
+        <v>0.88685160949016728</v>
       </c>
       <c r="W24" s="0">
         <v>0.86353952351864927</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.67532486007939352</v>
+        <v>0.88470955193104028</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.507402179261492</v>
+        <v>0.61341880706786722</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="0">
-        <v>0.50092783135613117</v>
+        <v>0.82623607910536712</v>
       </c>
       <c r="AG25" s="0">
         <v>0</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="0">
-        <v>0.63144338128447963</v>
+        <v>0.84021049731122288</v>
       </c>
       <c r="AI26" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.83836501541146924</v>
+        <v>0.91740789996814931</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.62592241908300861</v>
+        <v>0.85478929268296855</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.67761323822090502</v>
+        <v>0.88075598991781501</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="0">
-        <v>0.5789694483432466</v>
+        <v>0.98160723005804096</v>
       </c>
       <c r="BK28" s="0">
         <v>0</v>
@@ -5986,7 +5986,7 @@
         <v>0.93506054533390048</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.65086515202952056</v>
+        <v>0.82763092824071083</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.55773205660113057</v>
+        <v>0.62089235975782442</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.91657425339003851</v>
+        <v>0.93506054533390048</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0.82763092824071083</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.53934706654402742</v>
+        <v>0.66018397108831994</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="AM31" s="0">
-        <v>0.76612701742194833</v>
+        <v>0.84004438585807628</v>
       </c>
       <c r="AN31" s="0">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="BL32" s="0">
-        <v>0.52127020235312127</v>
+        <v>0.76576709082997052</v>
       </c>
       <c r="BM32" s="0">
         <v>0</v>
@@ -7019,16 +7019,16 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.67656277436131917</v>
+        <v>0.80547323764031886</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.96401462917682723</v>
+        <v>0.96768462508815656</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0.51000621251032108</v>
+        <v>0.79805833152070293</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="AY34" s="0">
-        <v>0.53717369356418132</v>
+        <v>0.96140080215296353</v>
       </c>
       <c r="AZ34" s="0">
         <v>0</v>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="0">
-        <v>0.77161801669834895</v>
+        <v>0.78883276506022426</v>
       </c>
       <c r="G35" s="0">
         <v>0</v>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="0">
-        <v>0.51261773319265058</v>
+        <v>0.88978441422576782</v>
       </c>
       <c r="N35" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.57603789183242993</v>
+        <v>0.98252244681035172</v>
       </c>
       <c r="AH35" s="0">
         <v>0.79805833152070293</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.91778744603894047</v>
+        <v>0.95163189083796307</v>
       </c>
       <c r="AL36" s="0">
         <v>0.88566899895533635</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.63382976374418654</v>
+        <v>0.88566899895533635</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.51071176082427594</v>
+        <v>0.96124573796248947</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="0">
-        <v>0.89266331095510054</v>
+        <v>0.93818845213214308</v>
       </c>
       <c r="AS38" s="0">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="0">
-        <v>0.63373372156071706</v>
+        <v>0.90519423541718103</v>
       </c>
       <c r="BL38" s="0">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.7141065374419524</v>
+        <v>0.99128081529063228</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.6092523325190502</v>
+        <v>0.90786158820041529</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.56063849153373235</v>
+        <v>0.71244581861380141</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.59953973208120304</v>
+        <v>0.85363009979059989</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.65887380050692856</v>
+        <v>0.70733383944996531</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.55391355100934181</v>
+        <v>0.80068379886368468</v>
       </c>
       <c r="AR42" s="0">
         <v>0.82943198232041981</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="BN42" s="0">
-        <v>0.57670972092919803</v>
+        <v>0.72346380161225765</v>
       </c>
       <c r="BO42" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.73932409699732471</v>
+        <v>0.9399981600753875</v>
       </c>
       <c r="AS43" s="0">
         <v>0.79707848862852304</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.73976613852036865</v>
+        <v>0.82943198232041981</v>
       </c>
       <c r="AQ44" s="0">
         <v>0.9399981600753875</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.52150155336360871</v>
+        <v>0.79707848862852304</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.69537619383329763</v>
+        <v>0.9210753027380183</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.82910710895211803</v>
+        <v>0.83933430731834002</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.9190960173752416</v>
+        <v>0.95985092217327628</v>
       </c>
       <c r="AS46" s="0">
         <v>0.9210753027380183</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="AN47" s="0">
-        <v>0.81749220043494808</v>
+        <v>0.97952830314276318</v>
       </c>
       <c r="AO47" s="0">
         <v>0</v>
@@ -9739,13 +9739,13 @@
         <v>0.83933430731834002</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.66095861534872857</v>
+        <v>0.82836333651182747</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.59290631636805202</v>
+        <v>0.71677458175192932</v>
       </c>
       <c r="AW47" s="0">
         <v>0.62711263916635696</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.75960337449663684</v>
+        <v>0.81777676222035955</v>
       </c>
       <c r="AU48" s="0">
         <v>0.71677458175192932</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.66583739573794731</v>
+        <v>0.77533974709501952</v>
       </c>
       <c r="AX48" s="0">
         <v>0.84545317584406132</v>
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="0">
-        <v>0.62488975679454506</v>
+        <v>0.88298995077017683</v>
       </c>
       <c r="H49" s="0">
         <v>0</v>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="0">
-        <v>0.90607300406193803</v>
+        <v>0.92303704732545588</v>
       </c>
       <c r="AE49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0.54591660115870055</v>
+        <v>0.62711263916635696</v>
       </c>
       <c r="AV49" s="0">
         <v>0.77533974709501952</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.84965774886654177</v>
+        <v>0.90492474523823874</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="BB49" s="0">
-        <v>0.52182029525332307</v>
+        <v>0.94005222434706581</v>
       </c>
       <c r="BC49" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.64031176772803855</v>
+        <v>0.84545317584406132</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0.77574909301737272</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.54893335716796288</v>
+        <v>0.71880284833866748</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="0">
-        <v>0.7165630408324466</v>
+        <v>0.97617689643601868</v>
       </c>
       <c r="C51" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0.90492474523823874</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.67527787363412028</v>
+        <v>0.77574909301737272</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="0">
-        <v>0.79079462101247455</v>
+        <v>0.95410992333743838</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -11026,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="BK53" s="0">
-        <v>0.68713014804004668</v>
+        <v>0.95895495279412502</v>
       </c>
       <c r="BL53" s="0">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="0">
-        <v>0.69532219867798339</v>
+        <v>0.95195822992185175</v>
       </c>
       <c r="AL54" s="0">
         <v>0</v>
@@ -11199,10 +11199,10 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.64348872645588817</v>
+        <v>0.80324224975041236</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.61973981261002531</v>
+        <v>0.74471702431193587</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="0">
-        <v>0.64474272667537758</v>
+        <v>0.76118955266150878</v>
       </c>
       <c r="N55" s="0">
         <v>0.83374421065590865</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.55185811957917585</v>
+        <v>0.6880647017430459</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0.76958057921778722</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.66419956585423023</v>
+        <v>0.93942285348606003</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11620,16 +11620,16 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>0.63397605215225927</v>
+        <v>0.76958057921778722</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.60195424667895248</v>
+        <v>0.73649597311487081</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.6203997755591828</v>
+        <v>0.78562681655378108</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="AD57" s="0">
-        <v>0.55921871149192093</v>
+        <v>0.60184311641251864</v>
       </c>
       <c r="AE57" s="0">
         <v>0</v>
@@ -12038,16 +12038,16 @@
         <v>0.78562681655378108</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.8854520475916392</v>
+        <v>0.93470274252859298</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.93980680198469924</v>
+        <v>0.9870666610626444</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.5787571800751723</v>
+        <v>0.80872335569656695</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="AH59" s="0">
-        <v>0.57394104682873837</v>
+        <v>0.91975665956494224</v>
       </c>
       <c r="AI59" s="0">
         <v>0</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>0.52486066716548097</v>
+        <v>0.82885923364421821</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12456,13 +12456,13 @@
         <v>0.80872335569656695</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.71448019863379031</v>
+        <v>0.88197017734233174</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.58436507285971295</v>
+        <v>0.59832580336960217</v>
       </c>
       <c r="BJ60" s="0">
         <v>0.835357922372163</v>
@@ -12671,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.83578333543504968</v>
+        <v>0.94560092740840729</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.6640078341326725</v>
+        <v>0.95777234830156677</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.57322095715466337</v>
+        <v>0.835357922372163</v>
       </c>
       <c r="BI62" s="0">
         <v>0.94560092740840729</v>
@@ -13083,13 +13083,13 @@
         <v>0.95777234830156677</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.51362193766667052</v>
+        <v>0.70075990177281833</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.75601645146205398</v>
+        <v>0.99455322839540194</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="0">
-        <v>0.6713846497615702</v>
+        <v>0.9957384360399284</v>
       </c>
       <c r="Q64" s="0">
         <v>0</v>
@@ -13501,16 +13501,16 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.54656986744934932</v>
+        <v>0.9680781119434696</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.61925302122100701</v>
+        <v>0.80538367010878942</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.67709030178375706</v>
+        <v>0.76079731451249433</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13587,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="0">
-        <v>0.59434169625992483</v>
+        <v>0.79868923383879442</v>
       </c>
       <c r="Y66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.52589149546596836</v>
+        <v>0.75675590177015795</v>
       </c>
       <c r="BM66" s="0">
         <v>0.80538367010878942</v>
@@ -14008,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="AA68" s="0">
-        <v>0.56979971787641093</v>
+        <v>0.82419368134407245</v>
       </c>
       <c r="AB68" s="0">
         <v>0</v>
